--- a/biology/Botanique/Trachycarpus_martianus/Trachycarpus_martianus.xlsx
+++ b/biology/Botanique/Trachycarpus_martianus/Trachycarpus_martianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Trachycarpus martianus est une espèce de plantes de la famille des Arecaceae (palmiers), du genre Trachycarpus. Il a été dénommé ainsi en l'honneur de Carl Friedrich Philipp von Martius, un botaniste allemand, reconnu comme le père de la botanique sur les palmiers.
 Sa silhouette rappelle certains palmiers tropicaux comme les Pritchardia ou les Copernicia. Ses palmes remarquables, régulièrement découpées, grandes et très divisées (jusqu’à 80 segments) le distingue des autres espèces du genre. Contrairement aux autres Trachycarpus, les fibres de son stipe, entrelacées et marron, ne persistent que quelques mois.
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aire d'origine : Himalaya, régions du nord-est de l’Inde, du Népal et de la Birmanie, jusqu’à 2500 mètres d’altitude, la plus haute enregistrée pour une espèce du genre Trachycarpus.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stipe (tronc) : Jusqu’à 12 mètres de hauteur. Recouvert, comme les autres espèces du genre, d’un crin de fibres entrelacées de couleur marron clair, qui se détache facilement et laisse très tôt apparaître un stipe annelé de 10 à 15 cm de diamètre, de couleur grise.
 Feuillage, couronne : Environ 30 feuilles palmées, de 70 cm à 1m de large, de couleur vert clair sur le dessus et souvent légèrement glauque dessous. Chaque feuille comporte quelque 70 segments (contre 40 seulement pour Trachycarpus fortunei) très régulièrement divisés (à l'inverse du Trachycarpus fortunei). Le pétiole vert, de 50cm à plus d’un mètre de longueur, est recouvert d’un tomentum laineux blanc (en fait des fibres), une autre façon de reconnaître à coup sûr le Trachycarpus martianus.
@@ -576,7 +592,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Leur résistance au froid généralement admise peut aller jusqu'à des températures négatives de -10 °C.
 Les jeunes plantes se développent assez lentement les trois premières années puis la croissance s’accélère grandement.
@@ -608,7 +626,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas d’utilisation spécifique mentionnée.
 Sur les autres projets Wikimedia :
